--- a/Gramática Y Tokens/Gramática y Tokens.xlsx
+++ b/Gramática Y Tokens/Gramática y Tokens.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\6to Ciclo 2021\Compiladores\Laboratorios\Lab1 - First Compiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Source\Repos\LabCompiladores\Gramática Y Tokens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E7EAB-26AA-404B-ACC3-65E1BE02CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF928B-946A-4BA7-B35A-83C2BC0DEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{63362802-1AEA-482B-A2B6-121966887EEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Variable</t>
   </si>
@@ -195,13 +195,49 @@
   </si>
   <si>
     <t>GRAMÁTICA</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
+  </si>
+  <si>
+    <t>DEFINICIÓN</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>MINUS</t>
+  </si>
+  <si>
+    <t>MULTIPLICATION</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>LPAREN</t>
+  </si>
+  <si>
+    <t>RPAREN</t>
+  </si>
+  <si>
+    <t>EOF</t>
+  </si>
+  <si>
+    <t>(char) 0</t>
+  </si>
+  <si>
+    <t>DIGIT</t>
+  </si>
+  <si>
+    <t>[0-9]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +247,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -238,20 +282,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1145,7 +1207,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60DEA9FB-97FB-483B-9B85-3AFACC91F532}" name="Tabla1" displayName="Tabla1" ref="E11:E18" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60DEA9FB-97FB-483B-9B85-3AFACC91F532}" name="Tabla1" displayName="Tabla1" ref="E11:E18" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="E11:E18" xr:uid="{60DEA9FB-97FB-483B-9B85-3AFACC91F532}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
@@ -1153,6 +1215,20 @@
     <tableColumn id="1" xr3:uid="{576BE6D3-9927-434D-9932-223D1D3C305F}" name="GRAMÁTICA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D8F4A02-C492-4012-8541-78AD694F999C}" name="Tabla2" displayName="Tabla2" ref="G11:H19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="G11:H19" xr:uid="{0D8F4A02-C492-4012-8541-78AD694F999C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DC258F5D-146F-45C1-BF4D-8FFE25CFDED9}" name="TOKEN" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1CA458DB-5AAB-41FB-9E00-1B5FBA56941C}" name="DEFINICIÓN" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1453,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0614CED1-5F84-4BE6-9A65-90E98912DA3E}">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1540,8 @@
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1733,12 +1811,18 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N10" s="5"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1747,6 +1831,12 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
+      <c r="G12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1755,6 +1845,12 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1763,7 +1859,12 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1772,6 +1873,12 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1780,33 +1887,61 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
+      <c r="G16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
+      <c r="G17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
+      <c r="G18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Gramática Y Tokens/Gramática y Tokens.xlsx
+++ b/Gramática Y Tokens/Gramática y Tokens.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Source\Repos\LabCompiladores\Gramática Y Tokens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF928B-946A-4BA7-B35A-83C2BC0DEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3264FB89-2805-415A-B5F8-ECB4680AAF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{63362802-1AEA-482B-A2B6-121966887EEE}"/>
+    <workbookView xWindow="16284" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{63362802-1AEA-482B-A2B6-121966887EEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
-    <sheet name="Gramatica Lab1 Compis" sheetId="1" r:id="rId2"/>
+    <sheet name="Gramatica Lab1 Compis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -345,867 +344,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gramatica Lab1 Compis'!$E$12:$E$17</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>E → TE'</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E' → +TE' | -TE' | ε</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>T → FT'</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>T' → *FT' | /FT' | ε</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>F → G | -F</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>G → NUM H | (E) </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gramatica Lab1 Compis'!$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0AB6-4468-AB62-F01C96CFC1DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="889434800"/>
-        <c:axId val="889435216"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="889434800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="889435216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="889435216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="889434800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2D868C78-BF92-4A1F-A1E8-E26B7F45CCAB}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6926649" cy="5025081"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4322AC26-7F55-4F6F-8F40-9AEF63B705EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60DEA9FB-97FB-483B-9B85-3AFACC91F532}" name="Tabla1" displayName="Tabla1" ref="E11:E18" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="E11:E18" xr:uid="{60DEA9FB-97FB-483B-9B85-3AFACC91F532}">
@@ -1219,14 +357,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D8F4A02-C492-4012-8541-78AD694F999C}" name="Tabla2" displayName="Tabla2" ref="G11:H19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D8F4A02-C492-4012-8541-78AD694F999C}" name="Tabla2" displayName="Tabla2" ref="G11:H19" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="G11:H19" xr:uid="{0D8F4A02-C492-4012-8541-78AD694F999C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DC258F5D-146F-45C1-BF4D-8FFE25CFDED9}" name="TOKEN" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1CA458DB-5AAB-41FB-9E00-1B5FBA56941C}" name="DEFINICIÓN" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DC258F5D-146F-45C1-BF4D-8FFE25CFDED9}" name="TOKEN" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1CA458DB-5AAB-41FB-9E00-1B5FBA56941C}" name="DEFINICIÓN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1532,7 +670,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
